--- a/e2e/Cobro_Recibos/Default.xlsx
+++ b/e2e/Cobro_Recibos/Default.xlsx
@@ -308,14 +308,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -631,7 +631,7 @@
     <col min="16" max="16384" width="8.8984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1">
+    <row r="1" s="7" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -703,14 +703,14 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="2">
-        <v>1000355</v>
+        <v>1000360</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>19</v>
@@ -721,7 +721,7 @@
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/e2e/Cobro_Recibos/Default.xlsx
+++ b/e2e/Cobro_Recibos/Default.xlsx
@@ -276,7 +276,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -287,9 +289,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -311,11 +311,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -631,7 +631,7 @@
     <col min="16" max="16384" width="8.8984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1">
+    <row r="1" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="2">
-        <v>1000360</v>
+        <v>1000373</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>19</v>
@@ -721,7 +721,7 @@
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="O2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
